--- a/biology/Médecine/Jean-Christophe_Tellier/Jean-Christophe_Tellier.xlsx
+++ b/biology/Médecine/Jean-Christophe_Tellier/Jean-Christophe_Tellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Christophe Tellier, né le 11 décembre 1959, est un médecin français ayant fait carrière dans l'industrie pharmaceutique. Il est directeur général d'UCB Pharma depuis janvier 2015.
 </t>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et études
-Il naît le 11 décembre 1959 à Metz[1]. Il suit son cursus secondaire à Reims puis y étudie la médecine, obtenant au terme de son parcours un diplôme de rhumatologie[2]. Son père Bernard Tellier est lui-même médecin[1].
-Carrière
-En 1990, il devient responsable des opérations hôpital et directeur marketing de Ciba France[2]. La fusion entre Ciba et Sandoz donne lieu à la création en 1996 de Novartis, dont il devient successivement PDG de Novartis Pharma Belgique en 2003, puis PDG de Novartis Pharma France en 2007[2].
-De 2008 à 2011, il travaille aux États-Unis chez Macrogenics puis chez Ipsen[3],[4]. Il entre chez UCB Pharma en 2011, quittant ainsi la Californie où il résidait pour Braine-l'Alleud en Belgique[5]. Il est nommé directeur  général d'UCB en janvier 2015[6],[7],[8].
-En 2018, il est le patron le mieux payé des vingt entreprises composant l'indice de la Bourse belge, le BEL 20[9]. Sous son égide, l'entreprise a développé plus de 7 nouveaux traitements, notamment dans l'ostéoporose et le psoriasis[10].
+          <t>Famille et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît le 11 décembre 1959 à Metz. Il suit son cursus secondaire à Reims puis y étudie la médecine, obtenant au terme de son parcours un diplôme de rhumatologie. Son père Bernard Tellier est lui-même médecin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tellier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tellier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, il devient responsable des opérations hôpital et directeur marketing de Ciba France. La fusion entre Ciba et Sandoz donne lieu à la création en 1996 de Novartis, dont il devient successivement PDG de Novartis Pharma Belgique en 2003, puis PDG de Novartis Pharma France en 2007.
+De 2008 à 2011, il travaille aux États-Unis chez Macrogenics puis chez Ipsen,. Il entre chez UCB Pharma en 2011, quittant ainsi la Californie où il résidait pour Braine-l'Alleud en Belgique. Il est nommé directeur  général d'UCB en janvier 2015.
+En 2018, il est le patron le mieux payé des vingt entreprises composant l'indice de la Bourse belge, le BEL 20. Sous son égide, l'entreprise a développé plus de 7 nouveaux traitements, notamment dans l'ostéoporose et le psoriasis.
 </t>
         </is>
       </c>
